--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -43,6 +43,9 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -55,196 +58,193 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>kitchen</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>cook</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>far</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>like</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>really</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>time</t>
@@ -611,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>79</v>
@@ -701,16 +701,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +730,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2790697674418605</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +748,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,63 +780,87 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>96</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>0.8515625</v>
+      </c>
+      <c r="L5">
+        <v>109</v>
+      </c>
+      <c r="M5">
+        <v>109</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>0.1297297297297297</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>24</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>161</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5">
-        <v>0.8405797101449275</v>
-      </c>
-      <c r="L5">
-        <v>58</v>
-      </c>
-      <c r="M5">
-        <v>58</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8390092879256966</v>
+        <v>0.8498452012383901</v>
       </c>
       <c r="L6">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M6">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -848,21 +872,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,21 +898,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7229437229437229</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,21 +924,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.7050847457627119</v>
+        <v>0.7056277056277056</v>
       </c>
       <c r="L9">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="M9">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -952,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.6818181818181818</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -978,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6764705882352942</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1004,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6712328767123288</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1030,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.640625</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1056,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6396468699839486</v>
+        <v>0.640625</v>
       </c>
       <c r="L15">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>797</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1082,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6228571428571429</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1108,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6222222222222222</v>
+        <v>0.6324237560192616</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>788</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>788</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1134,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6197183098591549</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1160,47 +1184,47 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6041666666666666</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="L19">
+        <v>43</v>
+      </c>
+      <c r="M19">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>29</v>
-      </c>
-      <c r="M19">
-        <v>29</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5982905982905983</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1212,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5857142857142857</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1238,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5789473684210527</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1264,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1290,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5269461077844312</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L24">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1316,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5138888888888888</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1342,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5096153846153846</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L26">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M26">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1368,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>51</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5037593984962406</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L27">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1394,15 +1418,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4918032786885246</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1420,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.4578313253012048</v>
+      </c>
+      <c r="L29">
         <v>38</v>
       </c>
-      <c r="K29">
-        <v>0.4868421052631579</v>
-      </c>
-      <c r="L29">
-        <v>37</v>
-      </c>
       <c r="M29">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1446,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4698795180722892</v>
+        <v>0.43</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1472,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4567901234567901</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1498,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>0.42</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1524,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.3968253968253968</v>
+        <v>0.4100719424460432</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1550,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3855421686746988</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1576,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3538461538461539</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1602,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3529411764705883</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1628,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3480392156862745</v>
+        <v>0.3424124513618677</v>
       </c>
       <c r="L37">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="M37">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1654,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>266</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3479452054794521</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L38">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1680,21 +1704,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>476</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3421052631578947</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1706,21 +1730,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>50</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3346303501945525</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L40">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="M40">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1732,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>171</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.316546762589928</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L41">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1758,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>95</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>0.2976190476190476</v>
+        <v>0.2839506172839506</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1784,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.2932330827067669</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1810,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2882882882882883</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1836,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2727272727272727</v>
+        <v>0.2508073196986007</v>
       </c>
       <c r="L45">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="M45">
-        <v>57</v>
+        <v>233</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1862,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>152</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2572658772874058</v>
+        <v>0.219435736677116</v>
       </c>
       <c r="L46">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1888,21 +1912,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>690</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2475247524752475</v>
+        <v>0.1986754966887417</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1914,21 +1938,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2407407407407407</v>
+        <v>0.1973509933774834</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1940,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>82</v>
+        <v>606</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.2351097178683386</v>
+        <v>0.1828644501278772</v>
       </c>
       <c r="L49">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="M49">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1966,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>244</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2072072072072072</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -1992,47 +2016,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2010243277848912</v>
+        <v>0.1725067385444744</v>
       </c>
       <c r="L51">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="M51">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="N51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>624</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1947019867549669</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="L52">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2044,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>608</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53">
+        <v>0.1508515815085158</v>
+      </c>
+      <c r="L53">
         <v>62</v>
       </c>
-      <c r="K53">
-        <v>0.1920529801324503</v>
-      </c>
-      <c r="L53">
-        <v>29</v>
-      </c>
       <c r="M53">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2070,47 +2094,47 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>122</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1544715447154472</v>
+        <v>0.147239263803681</v>
       </c>
       <c r="L54">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="M54">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>312</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1411192214111922</v>
+        <v>0.140893470790378</v>
       </c>
       <c r="L55">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M55">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2122,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>353</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.127147766323024</v>
+        <v>0.125</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M56">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2148,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>254</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1228070175438596</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L57">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M57">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2174,47 +2198,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>400</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1188118811881188</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>178</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.1176470588235294</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="L59">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2226,47 +2250,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1143911439114391</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>240</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1090909090909091</v>
+        <v>0.1050420168067227</v>
       </c>
       <c r="L61">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2278,47 +2302,47 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>392</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1003717472118959</v>
+        <v>0.08321377331420372</v>
       </c>
       <c r="L62">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N62">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O62">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>242</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.0954653937947494</v>
+        <v>0.07637231503579953</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2330,73 +2354,73 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.09274193548387097</v>
+        <v>0.06355140186915888</v>
       </c>
       <c r="L64">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="M64">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>225</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.08751793400286945</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L65">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M65">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N65">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>636</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.08022388059701492</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="L66">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2408,85 +2432,59 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>986</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.07397260273972603</v>
+        <v>0.04428044280442804</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>338</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.04243542435424354</v>
+        <v>0.04163052905464007</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="M68">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q68">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K69">
-        <v>0.03546712802768166</v>
-      </c>
-      <c r="L69">
-        <v>41</v>
-      </c>
-      <c r="M69">
-        <v>42</v>
-      </c>
-      <c r="N69">
-        <v>0.98</v>
-      </c>
-      <c r="O69">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>1115</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
